--- a/public/exports/insurances.xlsx
+++ b/public/exports/insurances.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,29 +516,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>68258fcc5d77b6a8ba6d49ad</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>02312322336</v>
+        <v>8667515052</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>QYKm13060152171</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>adld</v>
       </c>
       <c r="E2" t="str">
         <v/>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>Air Conditioner</v>
       </c>
       <c r="G2" t="str">
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>Tier2</v>
+        <v>Tier1</v>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>2025-05-15T06:55:08.203Z</v>
+        <v>2025-06-04T02:10:48.357Z</v>
       </c>
       <c r="L2" t="str">
-        <v>2025-05-15T06:55:08.203Z</v>
+        <v>2026-06-04T02:10:48.357Z</v>
       </c>
       <c r="M2" t="str">
         <v/>
@@ -564,14 +564,14 @@
       <c r="P2" t="str">
         <v>2025-05-12T00:00:00.000Z</v>
       </c>
-      <c r="Q2" t="str">
-        <v>2000</v>
+      <c r="Q2">
+        <v>20000</v>
       </c>
       <c r="R2" t="str">
-        <v>sdf</v>
+        <v>dssf</v>
       </c>
       <c r="S2" t="str">
-        <v>sdf</v>
+        <v>sdfs</v>
       </c>
       <c r="T2" t="str">
         <v/>
@@ -598,7 +598,7 @@
         <v/>
       </c>
       <c r="AB2" t="str">
-        <v>2025-05-15T06:55:08.203Z</v>
+        <v>2025-06-04T02:10:48.358Z</v>
       </c>
       <c r="AC2" t="str">
         <v>4000</v>
@@ -612,251 +612,25 @@
       <c r="AF2" t="str">
         <v/>
       </c>
-      <c r="AG2" t="str">
-        <v>681856ad3d994b7d9a94a1eb</v>
-      </c>
-      <c r="AH2" t="str">
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2" t="str">
         <v>PAID</v>
       </c>
       <c r="AJ2" t="str">
-        <v>2025-05-15T06:55:08.209Z</v>
+        <v>2025-06-04T02:10:48.360Z</v>
       </c>
       <c r="AK2" t="str">
-        <v>2025-05-15T07:19:18.204Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>6825924e5d77b6a8ba6d49b3</v>
-      </c>
-      <c r="B3" t="str">
-        <v>02312322336</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v>Tier1</v>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v>2025-05-15T07:05:50.168Z</v>
-      </c>
-      <c r="L3" t="str">
-        <v>2025-05-15T07:05:50.168Z</v>
-      </c>
-      <c r="M3" t="str">
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <v>erw</v>
-      </c>
-      <c r="O3" t="str">
-        <v>erw</v>
-      </c>
-      <c r="P3" t="str">
-        <v>2024-04-20T00:00:00.000Z</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>1000</v>
-      </c>
-      <c r="R3" t="str">
-        <v>test</v>
-      </c>
-      <c r="S3" t="str">
-        <v>emi</v>
-      </c>
-      <c r="T3" t="str">
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <v/>
-      </c>
-      <c r="V3" t="str">
-        <v/>
-      </c>
-      <c r="W3" t="str">
-        <v/>
-      </c>
-      <c r="X3" t="str">
-        <v/>
-      </c>
-      <c r="Y3" t="str">
-        <v/>
-      </c>
-      <c r="Z3" t="str">
-        <v/>
-      </c>
-      <c r="AA3" t="str">
-        <v/>
-      </c>
-      <c r="AB3" t="str">
-        <v>2025-05-15T07:05:50.168Z</v>
-      </c>
-      <c r="AC3" t="str">
-        <v>4000</v>
-      </c>
-      <c r="AD3" t="str">
-        <v/>
-      </c>
-      <c r="AE3" t="str">
-        <v/>
-      </c>
-      <c r="AF3" t="str">
-        <v/>
-      </c>
-      <c r="AG3" t="str">
-        <v>681856ad3d994b7d9a94a1eb</v>
-      </c>
-      <c r="AH3" t="str">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="str">
-        <v>PAID</v>
-      </c>
-      <c r="AJ3" t="str">
-        <v>2025-05-15T07:05:50.173Z</v>
-      </c>
-      <c r="AK3" t="str">
-        <v>2025-05-15T07:19:18.204Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>6831ac5af7cc5d4ac2fa625c</v>
-      </c>
-      <c r="B4" t="str">
-        <v>02312322336</v>
-      </c>
-      <c r="C4" t="str">
-        <v>QYKm00050131055</v>
-      </c>
-      <c r="D4" t="str">
-        <v>adld</v>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v>Refrigerator</v>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v>Tier1</v>
-      </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <v>2025-05-24T11:24:10.911Z</v>
-      </c>
-      <c r="L4" t="str">
-        <v>2025-05-24T11:24:10.911Z</v>
-      </c>
-      <c r="M4" t="str">
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <v>erw</v>
-      </c>
-      <c r="O4" t="str">
-        <v>erw</v>
-      </c>
-      <c r="P4" t="str">
-        <v>2025-04-12T00:00:00.000Z</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>10000</v>
-      </c>
-      <c r="R4" t="str">
-        <v>test</v>
-      </c>
-      <c r="S4" t="str">
-        <v>erte</v>
-      </c>
-      <c r="T4" t="str">
-        <v/>
-      </c>
-      <c r="U4" t="str">
-        <v/>
-      </c>
-      <c r="V4" t="str">
-        <v/>
-      </c>
-      <c r="W4" t="str">
-        <v/>
-      </c>
-      <c r="X4" t="str">
-        <v/>
-      </c>
-      <c r="Y4" t="str">
-        <v/>
-      </c>
-      <c r="Z4" t="str">
-        <v/>
-      </c>
-      <c r="AA4" t="str">
-        <v/>
-      </c>
-      <c r="AB4" t="str">
-        <v>2025-05-24T11:24:10.911Z</v>
-      </c>
-      <c r="AC4" t="str">
-        <v>4000</v>
-      </c>
-      <c r="AD4" t="str">
-        <v/>
-      </c>
-      <c r="AE4" t="str">
-        <v/>
-      </c>
-      <c r="AF4" t="str">
-        <v/>
-      </c>
-      <c r="AG4" t="str">
-        <v>681856ad3d994b7d9a94a1eb</v>
-      </c>
-      <c r="AH4" t="str">
-        <v>10000</v>
-      </c>
-      <c r="AI4" t="str">
-        <v>PAID</v>
-      </c>
-      <c r="AJ4" t="str">
-        <v>2025-05-24T11:24:10.914Z</v>
-      </c>
-      <c r="AK4" t="str">
-        <v>2025-05-24T11:24:10.914Z</v>
+        <v>2025-06-04T02:10:48.358Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AK4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AK2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/exports/insurances.xlsx
+++ b/public/exports/insurances.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,22 +517,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="str">
         <v>8667515052</v>
       </c>
       <c r="C2" t="str">
-        <v>QYKm13060152171</v>
+        <v>QYKs13060120729</v>
       </c>
       <c r="D2" t="str">
-        <v>adld</v>
+        <v>combo1Year</v>
       </c>
       <c r="E2" t="str">
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>Air Conditioner</v>
+        <v>Washing Machine</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>2025-06-04T02:10:48.357Z</v>
+        <v>2025-06-04T07:48:36.419Z</v>
       </c>
       <c r="L2" t="str">
-        <v>2026-06-04T02:10:48.357Z</v>
+        <v>2026-06-04T07:48:36.419Z</v>
       </c>
       <c r="M2" t="str">
         <v/>
@@ -562,16 +562,16 @@
         <v>erw</v>
       </c>
       <c r="P2" t="str">
-        <v>2025-05-12T00:00:00.000Z</v>
+        <v>2025-05-13T00:00:00.000Z</v>
       </c>
       <c r="Q2">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="R2" t="str">
-        <v>dssf</v>
+        <v>test</v>
       </c>
       <c r="S2" t="str">
-        <v>sdfs</v>
+        <v>tessfsd</v>
       </c>
       <c r="T2" t="str">
         <v/>
@@ -598,7 +598,7 @@
         <v/>
       </c>
       <c r="AB2" t="str">
-        <v>2025-06-04T02:10:48.358Z</v>
+        <v>2025-06-04T07:48:36.420Z</v>
       </c>
       <c r="AC2" t="str">
         <v>4000</v>
@@ -622,15 +622,580 @@
         <v>PAID</v>
       </c>
       <c r="AJ2" t="str">
-        <v>2025-06-04T02:10:48.360Z</v>
+        <v>2025-06-04T07:48:36.423Z</v>
       </c>
       <c r="AK2" t="str">
-        <v>2025-06-04T02:10:48.358Z</v>
+        <v>2025-06-04T07:48:36.420Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <v>8667515052</v>
+      </c>
+      <c r="C3" t="str">
+        <v>QYKs13060124688</v>
+      </c>
+      <c r="D3" t="str">
+        <v>combo1Year</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>Washing Machine</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v>Tier1</v>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v>2025-06-06T01:05:23.942Z</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2026-06-06T01:05:23.942Z</v>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v>erw</v>
+      </c>
+      <c r="O3" t="str">
+        <v>erw</v>
+      </c>
+      <c r="P3" t="str">
+        <v>2025-06-11T00:00:00.000Z</v>
+      </c>
+      <c r="Q3">
+        <v>26000</v>
+      </c>
+      <c r="R3" t="str">
+        <v>eret</v>
+      </c>
+      <c r="S3" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <v>2025-06-06T01:05:23.945Z</v>
+      </c>
+      <c r="AC3" t="str">
+        <v>4000</v>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <v/>
+      </c>
+      <c r="AF3" t="str">
+        <v/>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="str">
+        <v>PAID</v>
+      </c>
+      <c r="AJ3" t="str">
+        <v>2025-06-06T01:05:23.948Z</v>
+      </c>
+      <c r="AK3" t="str">
+        <v>2025-06-06T01:05:23.945Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <v>8667515052</v>
+      </c>
+      <c r="C4" t="str">
+        <v>QYKm13060122531</v>
+      </c>
+      <c r="D4" t="str">
+        <v>adld</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>Air Conditioner</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>Tier1</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>2025-06-06T01:06:01.091Z</v>
+      </c>
+      <c r="L4" t="str">
+        <v>2026-06-06T01:06:01.091Z</v>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v>vcv</v>
+      </c>
+      <c r="O4" t="str">
+        <v>xcvxcx</v>
+      </c>
+      <c r="P4" t="str">
+        <v>2025-06-12T00:00:00.000Z</v>
+      </c>
+      <c r="Q4">
+        <v>21000</v>
+      </c>
+      <c r="R4" t="str">
+        <v>eret</v>
+      </c>
+      <c r="S4" t="str">
+        <v>vcx</v>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <v>2025-06-06T01:06:01.091Z</v>
+      </c>
+      <c r="AC4" t="str">
+        <v>4000</v>
+      </c>
+      <c r="AD4" t="str">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <v/>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="str">
+        <v>PAID</v>
+      </c>
+      <c r="AJ4" t="str">
+        <v>2025-06-06T01:06:01.095Z</v>
+      </c>
+      <c r="AK4" t="str">
+        <v>2025-06-06T01:06:01.091Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <v>8667515052</v>
+      </c>
+      <c r="C5" t="str">
+        <v>QYKm01060176094</v>
+      </c>
+      <c r="D5" t="str">
+        <v>adld</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>Air Conditioner</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v>Tier1</v>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v>2025-06-11T10:22:59.247Z</v>
+      </c>
+      <c r="L5" t="str">
+        <v>2026-06-11T10:22:59.247Z</v>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v>Realme</v>
+      </c>
+      <c r="O5" t="str">
+        <v xml:space="preserve">realme 12x 5G </v>
+      </c>
+      <c r="P5" t="str">
+        <v>2025-06-11T00:00:00.000Z</v>
+      </c>
+      <c r="Q5">
+        <v>20000</v>
+      </c>
+      <c r="R5" t="str">
+        <v>1532</v>
+      </c>
+      <c r="S5" t="str">
+        <v>863352072328777</v>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <v>2025-06-11T10:22:59.248Z</v>
+      </c>
+      <c r="AC5" t="str">
+        <v>4000</v>
+      </c>
+      <c r="AD5" t="str">
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <v/>
+      </c>
+      <c r="AF5" t="str">
+        <v/>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="str">
+        <v>PAID</v>
+      </c>
+      <c r="AJ5" t="str">
+        <v>2025-06-11T10:22:59.252Z</v>
+      </c>
+      <c r="AK5" t="str">
+        <v>2025-06-11T10:22:59.248Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <v>8667515052</v>
+      </c>
+      <c r="C6" t="str">
+        <v>QYKp01060156908</v>
+      </c>
+      <c r="D6" t="str">
+        <v>ew2Year</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>Television</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v>Tier1</v>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v>2025-06-11T10:59:49.866Z</v>
+      </c>
+      <c r="L6" t="str">
+        <v>2026-06-11T10:59:49.866Z</v>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v>iphone</v>
+      </c>
+      <c r="O6" t="str">
+        <v>iphone16pro</v>
+      </c>
+      <c r="P6" t="str">
+        <v>2025-06-11T00:00:00.000Z</v>
+      </c>
+      <c r="Q6">
+        <v>10001</v>
+      </c>
+      <c r="R6" t="str">
+        <v>IN12345</v>
+      </c>
+      <c r="S6" t="str">
+        <v>IMEI3445</v>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <v>2025-06-11T10:59:49.867Z</v>
+      </c>
+      <c r="AC6" t="str">
+        <v>4000</v>
+      </c>
+      <c r="AD6" t="str">
+        <v/>
+      </c>
+      <c r="AE6" t="str">
+        <v/>
+      </c>
+      <c r="AF6" t="str">
+        <v/>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="str">
+        <v>PAID</v>
+      </c>
+      <c r="AJ6" t="str">
+        <v>2025-06-11T10:59:49.869Z</v>
+      </c>
+      <c r="AK6" t="str">
+        <v>2025-06-11T10:59:49.867Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>8667515052</v>
+      </c>
+      <c r="C7" t="str">
+        <v>QYKm01060117977</v>
+      </c>
+      <c r="D7" t="str">
+        <v>adld</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>Air Conditioner</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>Tier1</v>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v>2025-06-11T11:20:19.615Z</v>
+      </c>
+      <c r="L7" t="str">
+        <v>2026-06-11T11:20:19.615Z</v>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v>iphone</v>
+      </c>
+      <c r="O7" t="str">
+        <v>iphonepro</v>
+      </c>
+      <c r="P7" t="str">
+        <v>2025-06-11T00:00:00.000Z</v>
+      </c>
+      <c r="Q7">
+        <v>20000</v>
+      </c>
+      <c r="R7" t="str">
+        <v>ini12344</v>
+      </c>
+      <c r="S7" t="str">
+        <v>454634323</v>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <v>2025-06-11T11:20:19.616Z</v>
+      </c>
+      <c r="AC7" t="str">
+        <v>4000</v>
+      </c>
+      <c r="AD7" t="str">
+        <v/>
+      </c>
+      <c r="AE7" t="str">
+        <v/>
+      </c>
+      <c r="AF7" t="str">
+        <v/>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="str">
+        <v>PAID</v>
+      </c>
+      <c r="AJ7" t="str">
+        <v>2025-06-11T11:20:19.617Z</v>
+      </c>
+      <c r="AK7" t="str">
+        <v>2025-06-11T11:20:19.616Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AK2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AK7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/exports/insurances.xlsx
+++ b/public/exports/insurances.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,22 +517,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>8667515052</v>
+        <v>02312322334</v>
       </c>
       <c r="C2" t="str">
-        <v>QYKs13060120729</v>
+        <v>QYKm00060132283</v>
       </c>
       <c r="D2" t="str">
-        <v>combo1Year</v>
+        <v>adld</v>
       </c>
       <c r="E2" t="str">
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>Washing Machine</v>
+        <v>Ceiling Fan</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -547,31 +547,31 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>2025-06-04T07:48:36.419Z</v>
+        <v>2025-06-22T06:14:28.591Z</v>
       </c>
       <c r="L2" t="str">
-        <v>2026-06-04T07:48:36.419Z</v>
+        <v>2026-06-22T06:14:28.591Z</v>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>Under Review</v>
       </c>
       <c r="N2" t="str">
-        <v>erw</v>
+        <v>234</v>
       </c>
       <c r="O2" t="str">
-        <v>erw</v>
+        <v>wer</v>
       </c>
       <c r="P2" t="str">
-        <v>2025-05-13T00:00:00.000Z</v>
+        <v>2025-04-12T00:00:00.000Z</v>
       </c>
       <c r="Q2">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="R2" t="str">
-        <v>test</v>
+        <v>f45gf</v>
       </c>
       <c r="S2" t="str">
-        <v>tessfsd</v>
+        <v>dgdfg</v>
       </c>
       <c r="T2" t="str">
         <v/>
@@ -598,10 +598,10 @@
         <v/>
       </c>
       <c r="AB2" t="str">
-        <v>2025-06-04T07:48:36.420Z</v>
-      </c>
-      <c r="AC2" t="str">
-        <v>4000</v>
+        <v>2025-06-22T06:14:28.593Z</v>
+      </c>
+      <c r="AC2">
+        <v>1700</v>
       </c>
       <c r="AD2" t="str">
         <v/>
@@ -622,30 +622,30 @@
         <v>PAID</v>
       </c>
       <c r="AJ2" t="str">
-        <v>2025-06-04T07:48:36.423Z</v>
+        <v>2025-06-22T06:14:28.597Z</v>
       </c>
       <c r="AK2" t="str">
-        <v>2025-06-04T07:48:36.420Z</v>
+        <v>2025-06-22T06:14:28.593Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>8667515052</v>
+        <v>02312322334</v>
       </c>
       <c r="C3" t="str">
-        <v>QYKs13060124688</v>
+        <v>QYKp00060196989</v>
       </c>
       <c r="D3" t="str">
-        <v>combo1Year</v>
+        <v>ew2Year</v>
       </c>
       <c r="E3" t="str">
         <v/>
       </c>
       <c r="F3" t="str">
-        <v>Washing Machine</v>
+        <v>Ceiling Fan</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -660,31 +660,31 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>2025-06-06T01:05:23.942Z</v>
+        <v>2025-06-23T05:59:58.776Z</v>
       </c>
       <c r="L3" t="str">
-        <v>2026-06-06T01:05:23.942Z</v>
+        <v>2026-06-23T05:59:58.776Z</v>
       </c>
       <c r="M3" t="str">
-        <v/>
+        <v>Under Review</v>
       </c>
       <c r="N3" t="str">
-        <v>erw</v>
+        <v>Samsung</v>
       </c>
       <c r="O3" t="str">
-        <v>erw</v>
+        <v>dgdfg</v>
       </c>
       <c r="P3" t="str">
-        <v>2025-06-11T00:00:00.000Z</v>
+        <v>2025-05-12T00:00:00.000Z</v>
       </c>
       <c r="Q3">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="R3" t="str">
-        <v>eret</v>
+        <v>tes</v>
       </c>
       <c r="S3" t="str">
-        <v>sdf</v>
+        <v>tes</v>
       </c>
       <c r="T3" t="str">
         <v/>
@@ -711,10 +711,10 @@
         <v/>
       </c>
       <c r="AB3" t="str">
-        <v>2025-06-06T01:05:23.945Z</v>
-      </c>
-      <c r="AC3" t="str">
-        <v>4000</v>
+        <v>2025-06-23T05:59:58.777Z</v>
+      </c>
+      <c r="AC3">
+        <v>1020</v>
       </c>
       <c r="AD3" t="str">
         <v/>
@@ -735,30 +735,30 @@
         <v>PAID</v>
       </c>
       <c r="AJ3" t="str">
-        <v>2025-06-06T01:05:23.948Z</v>
+        <v>2025-06-23T05:59:58.806Z</v>
       </c>
       <c r="AK3" t="str">
-        <v>2025-06-06T01:05:23.945Z</v>
+        <v>2025-06-23T05:59:58.777Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>8667515052</v>
+        <v>02312322334</v>
       </c>
       <c r="C4" t="str">
-        <v>QYKm13060122531</v>
+        <v>QYKp00060135603</v>
       </c>
       <c r="D4" t="str">
-        <v>adld</v>
+        <v>ew2Year</v>
       </c>
       <c r="E4" t="str">
         <v/>
       </c>
       <c r="F4" t="str">
-        <v>Air Conditioner</v>
+        <v>Ceiling Fan</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -773,31 +773,31 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>2025-06-06T01:06:01.091Z</v>
+        <v>2025-06-23T06:02:16.241Z</v>
       </c>
       <c r="L4" t="str">
-        <v>2026-06-06T01:06:01.091Z</v>
+        <v>2026-06-23T06:02:16.241Z</v>
       </c>
       <c r="M4" t="str">
-        <v/>
+        <v>Under Review</v>
       </c>
       <c r="N4" t="str">
-        <v>vcv</v>
+        <v>test</v>
       </c>
       <c r="O4" t="str">
-        <v>xcvxcx</v>
+        <v>dgdfg</v>
       </c>
       <c r="P4" t="str">
-        <v>2025-06-12T00:00:00.000Z</v>
+        <v>0202-05-12T00:00:00.000Z</v>
       </c>
       <c r="Q4">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="R4" t="str">
-        <v>eret</v>
+        <v>drt</v>
       </c>
       <c r="S4" t="str">
-        <v>vcx</v>
+        <v>dfg</v>
       </c>
       <c r="T4" t="str">
         <v/>
@@ -824,10 +824,10 @@
         <v/>
       </c>
       <c r="AB4" t="str">
-        <v>2025-06-06T01:06:01.091Z</v>
-      </c>
-      <c r="AC4" t="str">
-        <v>4000</v>
+        <v>2025-06-23T06:02:16.242Z</v>
+      </c>
+      <c r="AC4">
+        <v>1020</v>
       </c>
       <c r="AD4" t="str">
         <v/>
@@ -848,30 +848,30 @@
         <v>PAID</v>
       </c>
       <c r="AJ4" t="str">
-        <v>2025-06-06T01:06:01.095Z</v>
+        <v>2025-06-23T06:02:16.244Z</v>
       </c>
       <c r="AK4" t="str">
-        <v>2025-06-06T01:06:01.091Z</v>
+        <v>2025-06-23T06:02:16.242Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>8667515052</v>
+        <v>02312322334</v>
       </c>
       <c r="C5" t="str">
-        <v>QYKm01060176094</v>
+        <v>QYKp00060174842</v>
       </c>
       <c r="D5" t="str">
-        <v>adld</v>
+        <v>ew2Year</v>
       </c>
       <c r="E5" t="str">
         <v/>
       </c>
       <c r="F5" t="str">
-        <v>Air Conditioner</v>
+        <v>Ceiling Fan</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -886,31 +886,31 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>2025-06-11T10:22:59.247Z</v>
+        <v>2025-06-23T06:08:41.156Z</v>
       </c>
       <c r="L5" t="str">
-        <v>2026-06-11T10:22:59.247Z</v>
+        <v>2026-06-23T06:08:41.156Z</v>
       </c>
       <c r="M5" t="str">
-        <v/>
+        <v>Under Review</v>
       </c>
       <c r="N5" t="str">
-        <v>Realme</v>
+        <v>Samsung</v>
       </c>
       <c r="O5" t="str">
-        <v xml:space="preserve">realme 12x 5G </v>
+        <v>dgdfg</v>
       </c>
       <c r="P5" t="str">
-        <v>2025-06-11T00:00:00.000Z</v>
+        <v>2025-05-12T00:00:00.000Z</v>
       </c>
       <c r="Q5">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="R5" t="str">
-        <v>1532</v>
+        <v>tes</v>
       </c>
       <c r="S5" t="str">
-        <v>863352072328777</v>
+        <v>dfg</v>
       </c>
       <c r="T5" t="str">
         <v/>
@@ -937,10 +937,10 @@
         <v/>
       </c>
       <c r="AB5" t="str">
-        <v>2025-06-11T10:22:59.248Z</v>
-      </c>
-      <c r="AC5" t="str">
-        <v>4000</v>
+        <v>2025-06-23T06:08:41.157Z</v>
+      </c>
+      <c r="AC5">
+        <v>1020</v>
       </c>
       <c r="AD5" t="str">
         <v/>
@@ -961,21 +961,21 @@
         <v>PAID</v>
       </c>
       <c r="AJ5" t="str">
-        <v>2025-06-11T10:22:59.252Z</v>
+        <v>2025-06-23T06:08:41.159Z</v>
       </c>
       <c r="AK5" t="str">
-        <v>2025-06-11T10:22:59.248Z</v>
+        <v>2025-06-23T06:08:41.157Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>8667515052</v>
+        <v>02312322334</v>
       </c>
       <c r="C6" t="str">
-        <v>QYKp01060156908</v>
+        <v>QYKp00060177123</v>
       </c>
       <c r="D6" t="str">
         <v>ew2Year</v>
@@ -984,7 +984,7 @@
         <v/>
       </c>
       <c r="F6" t="str">
-        <v>Television</v>
+        <v>Ceiling Fan</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -999,31 +999,31 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>2025-06-11T10:59:49.866Z</v>
+        <v>2025-06-23T06:11:21.460Z</v>
       </c>
       <c r="L6" t="str">
-        <v>2026-06-11T10:59:49.866Z</v>
+        <v>2026-06-23T06:11:21.460Z</v>
       </c>
       <c r="M6" t="str">
-        <v/>
+        <v>Under Review</v>
       </c>
       <c r="N6" t="str">
-        <v>iphone</v>
+        <v>test</v>
       </c>
       <c r="O6" t="str">
-        <v>iphone16pro</v>
+        <v>dgdfg</v>
       </c>
       <c r="P6" t="str">
-        <v>2025-06-11T00:00:00.000Z</v>
+        <v>2025-05-12T00:00:00.000Z</v>
       </c>
       <c r="Q6">
-        <v>10001</v>
+        <v>12000</v>
       </c>
       <c r="R6" t="str">
-        <v>IN12345</v>
+        <v>tes</v>
       </c>
       <c r="S6" t="str">
-        <v>IMEI3445</v>
+        <v>gjhj</v>
       </c>
       <c r="T6" t="str">
         <v/>
@@ -1050,10 +1050,10 @@
         <v/>
       </c>
       <c r="AB6" t="str">
-        <v>2025-06-11T10:59:49.867Z</v>
-      </c>
-      <c r="AC6" t="str">
-        <v>4000</v>
+        <v>2025-06-23T06:11:21.462Z</v>
+      </c>
+      <c r="AC6">
+        <v>1020</v>
       </c>
       <c r="AD6" t="str">
         <v/>
@@ -1074,128 +1074,15 @@
         <v>PAID</v>
       </c>
       <c r="AJ6" t="str">
-        <v>2025-06-11T10:59:49.869Z</v>
+        <v>2025-06-23T06:11:21.494Z</v>
       </c>
       <c r="AK6" t="str">
-        <v>2025-06-11T10:59:49.867Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="str">
-        <v>8667515052</v>
-      </c>
-      <c r="C7" t="str">
-        <v>QYKm01060117977</v>
-      </c>
-      <c r="D7" t="str">
-        <v>adld</v>
-      </c>
-      <c r="E7" t="str">
-        <v/>
-      </c>
-      <c r="F7" t="str">
-        <v>Air Conditioner</v>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v>Tier1</v>
-      </c>
-      <c r="I7" t="str">
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <v/>
-      </c>
-      <c r="K7" t="str">
-        <v>2025-06-11T11:20:19.615Z</v>
-      </c>
-      <c r="L7" t="str">
-        <v>2026-06-11T11:20:19.615Z</v>
-      </c>
-      <c r="M7" t="str">
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <v>iphone</v>
-      </c>
-      <c r="O7" t="str">
-        <v>iphonepro</v>
-      </c>
-      <c r="P7" t="str">
-        <v>2025-06-11T00:00:00.000Z</v>
-      </c>
-      <c r="Q7">
-        <v>20000</v>
-      </c>
-      <c r="R7" t="str">
-        <v>ini12344</v>
-      </c>
-      <c r="S7" t="str">
-        <v>454634323</v>
-      </c>
-      <c r="T7" t="str">
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <v/>
-      </c>
-      <c r="V7" t="str">
-        <v/>
-      </c>
-      <c r="W7" t="str">
-        <v/>
-      </c>
-      <c r="X7" t="str">
-        <v/>
-      </c>
-      <c r="Y7" t="str">
-        <v/>
-      </c>
-      <c r="Z7" t="str">
-        <v/>
-      </c>
-      <c r="AA7" t="str">
-        <v/>
-      </c>
-      <c r="AB7" t="str">
-        <v>2025-06-11T11:20:19.616Z</v>
-      </c>
-      <c r="AC7" t="str">
-        <v>4000</v>
-      </c>
-      <c r="AD7" t="str">
-        <v/>
-      </c>
-      <c r="AE7" t="str">
-        <v/>
-      </c>
-      <c r="AF7" t="str">
-        <v/>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="str">
-        <v>PAID</v>
-      </c>
-      <c r="AJ7" t="str">
-        <v>2025-06-11T11:20:19.617Z</v>
-      </c>
-      <c r="AK7" t="str">
-        <v>2025-06-11T11:20:19.616Z</v>
+        <v>2025-06-23T06:11:21.462Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AK7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AK6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/exports/insurances.xlsx
+++ b/public/exports/insurances.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,7 +523,7 @@
         <v>02312322334</v>
       </c>
       <c r="C2" t="str">
-        <v>QYKm00060132283</v>
+        <v>QYKm00060138554</v>
       </c>
       <c r="D2" t="str">
         <v>adld</v>
@@ -532,7 +532,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>Ceiling Fan</v>
+        <v>Refrigerator</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -547,31 +547,31 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>2025-06-22T06:14:28.591Z</v>
+        <v>2025-06-28T05:51:03.916Z</v>
       </c>
       <c r="L2" t="str">
-        <v>2026-06-22T06:14:28.591Z</v>
+        <v>2026-06-28T05:51:03.916Z</v>
       </c>
       <c r="M2" t="str">
         <v>Under Review</v>
       </c>
       <c r="N2" t="str">
-        <v>234</v>
+        <v>Sony</v>
       </c>
       <c r="O2" t="str">
-        <v>wer</v>
+        <v>dgdfg</v>
       </c>
       <c r="P2" t="str">
-        <v>2025-04-12T00:00:00.000Z</v>
+        <v>2025-05-12T00:00:00.000Z</v>
       </c>
       <c r="Q2">
         <v>10000</v>
       </c>
       <c r="R2" t="str">
-        <v>f45gf</v>
+        <v>tes</v>
       </c>
       <c r="S2" t="str">
-        <v>dgdfg</v>
+        <v>dfg</v>
       </c>
       <c r="T2" t="str">
         <v/>
@@ -595,10 +595,10 @@
         <v/>
       </c>
       <c r="AA2" t="str">
-        <v/>
+        <v>sdf</v>
       </c>
       <c r="AB2" t="str">
-        <v>2025-06-22T06:14:28.593Z</v>
+        <v>2025-06-28T05:51:03.918Z</v>
       </c>
       <c r="AC2">
         <v>1700</v>
@@ -622,467 +622,15 @@
         <v>PAID</v>
       </c>
       <c r="AJ2" t="str">
-        <v>2025-06-22T06:14:28.597Z</v>
+        <v>2025-06-28T05:51:03.921Z</v>
       </c>
       <c r="AK2" t="str">
-        <v>2025-06-22T06:14:28.593Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>02312322334</v>
-      </c>
-      <c r="C3" t="str">
-        <v>QYKp00060196989</v>
-      </c>
-      <c r="D3" t="str">
-        <v>ew2Year</v>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v>Ceiling Fan</v>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v>Tier1</v>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v>2025-06-23T05:59:58.776Z</v>
-      </c>
-      <c r="L3" t="str">
-        <v>2026-06-23T05:59:58.776Z</v>
-      </c>
-      <c r="M3" t="str">
-        <v>Under Review</v>
-      </c>
-      <c r="N3" t="str">
-        <v>Samsung</v>
-      </c>
-      <c r="O3" t="str">
-        <v>dgdfg</v>
-      </c>
-      <c r="P3" t="str">
-        <v>2025-05-12T00:00:00.000Z</v>
-      </c>
-      <c r="Q3">
-        <v>12000</v>
-      </c>
-      <c r="R3" t="str">
-        <v>tes</v>
-      </c>
-      <c r="S3" t="str">
-        <v>tes</v>
-      </c>
-      <c r="T3" t="str">
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <v/>
-      </c>
-      <c r="V3" t="str">
-        <v/>
-      </c>
-      <c r="W3" t="str">
-        <v/>
-      </c>
-      <c r="X3" t="str">
-        <v/>
-      </c>
-      <c r="Y3" t="str">
-        <v/>
-      </c>
-      <c r="Z3" t="str">
-        <v/>
-      </c>
-      <c r="AA3" t="str">
-        <v/>
-      </c>
-      <c r="AB3" t="str">
-        <v>2025-06-23T05:59:58.777Z</v>
-      </c>
-      <c r="AC3">
-        <v>1020</v>
-      </c>
-      <c r="AD3" t="str">
-        <v/>
-      </c>
-      <c r="AE3" t="str">
-        <v/>
-      </c>
-      <c r="AF3" t="str">
-        <v/>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="str">
-        <v>PAID</v>
-      </c>
-      <c r="AJ3" t="str">
-        <v>2025-06-23T05:59:58.806Z</v>
-      </c>
-      <c r="AK3" t="str">
-        <v>2025-06-23T05:59:58.777Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>02312322334</v>
-      </c>
-      <c r="C4" t="str">
-        <v>QYKp00060135603</v>
-      </c>
-      <c r="D4" t="str">
-        <v>ew2Year</v>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v>Ceiling Fan</v>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v>Tier1</v>
-      </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <v>2025-06-23T06:02:16.241Z</v>
-      </c>
-      <c r="L4" t="str">
-        <v>2026-06-23T06:02:16.241Z</v>
-      </c>
-      <c r="M4" t="str">
-        <v>Under Review</v>
-      </c>
-      <c r="N4" t="str">
-        <v>test</v>
-      </c>
-      <c r="O4" t="str">
-        <v>dgdfg</v>
-      </c>
-      <c r="P4" t="str">
-        <v>0202-05-12T00:00:00.000Z</v>
-      </c>
-      <c r="Q4">
-        <v>14000</v>
-      </c>
-      <c r="R4" t="str">
-        <v>drt</v>
-      </c>
-      <c r="S4" t="str">
-        <v>dfg</v>
-      </c>
-      <c r="T4" t="str">
-        <v/>
-      </c>
-      <c r="U4" t="str">
-        <v/>
-      </c>
-      <c r="V4" t="str">
-        <v/>
-      </c>
-      <c r="W4" t="str">
-        <v/>
-      </c>
-      <c r="X4" t="str">
-        <v/>
-      </c>
-      <c r="Y4" t="str">
-        <v/>
-      </c>
-      <c r="Z4" t="str">
-        <v/>
-      </c>
-      <c r="AA4" t="str">
-        <v/>
-      </c>
-      <c r="AB4" t="str">
-        <v>2025-06-23T06:02:16.242Z</v>
-      </c>
-      <c r="AC4">
-        <v>1020</v>
-      </c>
-      <c r="AD4" t="str">
-        <v/>
-      </c>
-      <c r="AE4" t="str">
-        <v/>
-      </c>
-      <c r="AF4" t="str">
-        <v/>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="str">
-        <v>PAID</v>
-      </c>
-      <c r="AJ4" t="str">
-        <v>2025-06-23T06:02:16.244Z</v>
-      </c>
-      <c r="AK4" t="str">
-        <v>2025-06-23T06:02:16.242Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>02312322334</v>
-      </c>
-      <c r="C5" t="str">
-        <v>QYKp00060174842</v>
-      </c>
-      <c r="D5" t="str">
-        <v>ew2Year</v>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v>Ceiling Fan</v>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v>Tier1</v>
-      </c>
-      <c r="I5" t="str">
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <v/>
-      </c>
-      <c r="K5" t="str">
-        <v>2025-06-23T06:08:41.156Z</v>
-      </c>
-      <c r="L5" t="str">
-        <v>2026-06-23T06:08:41.156Z</v>
-      </c>
-      <c r="M5" t="str">
-        <v>Under Review</v>
-      </c>
-      <c r="N5" t="str">
-        <v>Samsung</v>
-      </c>
-      <c r="O5" t="str">
-        <v>dgdfg</v>
-      </c>
-      <c r="P5" t="str">
-        <v>2025-05-12T00:00:00.000Z</v>
-      </c>
-      <c r="Q5">
-        <v>12000</v>
-      </c>
-      <c r="R5" t="str">
-        <v>tes</v>
-      </c>
-      <c r="S5" t="str">
-        <v>dfg</v>
-      </c>
-      <c r="T5" t="str">
-        <v/>
-      </c>
-      <c r="U5" t="str">
-        <v/>
-      </c>
-      <c r="V5" t="str">
-        <v/>
-      </c>
-      <c r="W5" t="str">
-        <v/>
-      </c>
-      <c r="X5" t="str">
-        <v/>
-      </c>
-      <c r="Y5" t="str">
-        <v/>
-      </c>
-      <c r="Z5" t="str">
-        <v/>
-      </c>
-      <c r="AA5" t="str">
-        <v/>
-      </c>
-      <c r="AB5" t="str">
-        <v>2025-06-23T06:08:41.157Z</v>
-      </c>
-      <c r="AC5">
-        <v>1020</v>
-      </c>
-      <c r="AD5" t="str">
-        <v/>
-      </c>
-      <c r="AE5" t="str">
-        <v/>
-      </c>
-      <c r="AF5" t="str">
-        <v/>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="str">
-        <v>PAID</v>
-      </c>
-      <c r="AJ5" t="str">
-        <v>2025-06-23T06:08:41.159Z</v>
-      </c>
-      <c r="AK5" t="str">
-        <v>2025-06-23T06:08:41.157Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>02312322334</v>
-      </c>
-      <c r="C6" t="str">
-        <v>QYKp00060177123</v>
-      </c>
-      <c r="D6" t="str">
-        <v>ew2Year</v>
-      </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <v>Ceiling Fan</v>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v>Tier1</v>
-      </c>
-      <c r="I6" t="str">
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <v>2025-06-23T06:11:21.460Z</v>
-      </c>
-      <c r="L6" t="str">
-        <v>2026-06-23T06:11:21.460Z</v>
-      </c>
-      <c r="M6" t="str">
-        <v>Under Review</v>
-      </c>
-      <c r="N6" t="str">
-        <v>test</v>
-      </c>
-      <c r="O6" t="str">
-        <v>dgdfg</v>
-      </c>
-      <c r="P6" t="str">
-        <v>2025-05-12T00:00:00.000Z</v>
-      </c>
-      <c r="Q6">
-        <v>12000</v>
-      </c>
-      <c r="R6" t="str">
-        <v>tes</v>
-      </c>
-      <c r="S6" t="str">
-        <v>gjhj</v>
-      </c>
-      <c r="T6" t="str">
-        <v/>
-      </c>
-      <c r="U6" t="str">
-        <v/>
-      </c>
-      <c r="V6" t="str">
-        <v/>
-      </c>
-      <c r="W6" t="str">
-        <v/>
-      </c>
-      <c r="X6" t="str">
-        <v/>
-      </c>
-      <c r="Y6" t="str">
-        <v/>
-      </c>
-      <c r="Z6" t="str">
-        <v/>
-      </c>
-      <c r="AA6" t="str">
-        <v/>
-      </c>
-      <c r="AB6" t="str">
-        <v>2025-06-23T06:11:21.462Z</v>
-      </c>
-      <c r="AC6">
-        <v>1020</v>
-      </c>
-      <c r="AD6" t="str">
-        <v/>
-      </c>
-      <c r="AE6" t="str">
-        <v/>
-      </c>
-      <c r="AF6" t="str">
-        <v/>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="str">
-        <v>PAID</v>
-      </c>
-      <c r="AJ6" t="str">
-        <v>2025-06-23T06:11:21.494Z</v>
-      </c>
-      <c r="AK6" t="str">
-        <v>2025-06-23T06:11:21.462Z</v>
+        <v>2025-06-28T05:51:03.918Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AK6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AK2"/>
   </ignoredErrors>
 </worksheet>
 </file>